--- a/e-Conference_Test_Fault_Summary.xlsx
+++ b/e-Conference_Test_Fault_Summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2379" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="479">
   <si>
     <t>Test Summary - Initial Testing</t>
   </si>
@@ -1500,6 +1500,18 @@
   </si>
   <si>
     <t>No button to add or edit current file</t>
+  </si>
+  <si>
+    <t>Add Session is not adding new session</t>
+  </si>
+  <si>
+    <t>Edit Session is not updating the input to database</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>fix after hosted externally</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1647,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1714,8 +1726,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1921,26 +1939,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1981,7 +1979,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2143,7 +2141,6 @@
     <xf numFmtId="15" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2168,9 +2165,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2205,7 +2199,17 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2546,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L257"/>
+  <dimension ref="A1:L259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,8 +2563,9 @@
     <col min="6" max="6" width="75.140625" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="117" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="116" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -2574,8 +2579,9 @@
       </c>
       <c r="G1" s="109"/>
       <c r="H1" s="109"/>
-      <c r="I1" s="115"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="109"/>
+      <c r="K1" s="90"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
@@ -2602,11 +2608,14 @@
       <c r="H2" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="113" t="s">
         <v>420</v>
       </c>
       <c r="J2" s="90" t="s">
         <v>423</v>
+      </c>
+      <c r="K2" s="145" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2634,13 +2643,13 @@
       <c r="H3" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="I3" s="116">
+      <c r="I3" s="115">
         <v>41867</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="139" t="s">
         <v>468</v>
       </c>
-      <c r="K3" s="123" t="s">
+      <c r="K3" s="144" t="s">
         <v>469</v>
       </c>
     </row>
@@ -2669,12 +2678,13 @@
       <c r="H4" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="I4" s="116">
+      <c r="I4" s="115">
         <v>41867</v>
       </c>
-      <c r="J4" s="122" t="s">
+      <c r="J4" s="139" t="s">
         <v>468</v>
       </c>
+      <c r="K4" s="144"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
@@ -2699,10 +2709,11 @@
         <v>415</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="72" t="s">
+      <c r="I5" s="115"/>
+      <c r="J5" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K5" s="144"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="101">
@@ -2727,10 +2738,11 @@
         <v>415</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="72" t="s">
+      <c r="I6" s="115"/>
+      <c r="J6" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K6" s="144"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="101">
@@ -2755,10 +2767,11 @@
         <v>415</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="72" t="s">
+      <c r="I7" s="115"/>
+      <c r="J7" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K7" s="144"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="101">
@@ -2785,12 +2798,13 @@
       <c r="H8" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="I8" s="116">
+      <c r="I8" s="115">
         <v>41867</v>
       </c>
-      <c r="J8" s="122" t="s">
+      <c r="J8" s="139" t="s">
         <v>468</v>
       </c>
+      <c r="K8" s="144"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="101">
@@ -2817,12 +2831,13 @@
       <c r="H9" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="I9" s="116">
+      <c r="I9" s="115">
         <v>41867</v>
       </c>
-      <c r="J9" s="122" t="s">
+      <c r="J9" s="139" t="s">
         <v>468</v>
       </c>
+      <c r="K9" s="144"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="101">
@@ -2847,10 +2862,11 @@
         <v>415</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="72" t="s">
+      <c r="I10" s="115"/>
+      <c r="J10" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K10" s="144"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="101">
@@ -2877,12 +2893,12 @@
       <c r="H11" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="I11" s="116"/>
-      <c r="J11" s="72" t="s">
+      <c r="I11" s="115"/>
+      <c r="J11" s="137" t="s">
         <v>338</v>
       </c>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="121"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="101">
@@ -2909,11 +2925,11 @@
       <c r="H12" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="72" t="s">
+      <c r="I12" s="115"/>
+      <c r="J12" s="137" t="s">
         <v>338</v>
       </c>
-      <c r="K12" s="123" t="s">
+      <c r="K12" s="144" t="s">
         <v>470</v>
       </c>
     </row>
@@ -2940,10 +2956,11 @@
         <v>415</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="72" t="s">
+      <c r="I13" s="115"/>
+      <c r="J13" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K13" s="144"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="101">
@@ -2968,10 +2985,11 @@
         <v>415</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="72" t="s">
+      <c r="I14" s="115"/>
+      <c r="J14" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K14" s="144"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
@@ -2996,10 +3014,11 @@
         <v>415</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="72" t="s">
+      <c r="I15" s="115"/>
+      <c r="J15" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K15" s="144"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="101">
@@ -3024,10 +3043,11 @@
         <v>415</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="72" t="s">
+      <c r="I16" s="115"/>
+      <c r="J16" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K16" s="144"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="101">
@@ -3054,10 +3074,11 @@
       <c r="H17" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="I17" s="116"/>
-      <c r="J17" s="72" t="s">
+      <c r="I17" s="115"/>
+      <c r="J17" s="137" t="s">
         <v>338</v>
       </c>
+      <c r="K17" s="144"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="101">
@@ -3082,9 +3103,12 @@
         <v>415</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="72" t="s">
+      <c r="I18" s="115"/>
+      <c r="J18" s="137" t="s">
         <v>338</v>
+      </c>
+      <c r="K18" s="144" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3110,8 +3134,11 @@
         <v>415</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="72"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="144" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="101">
@@ -3136,95 +3163,88 @@
         <v>415</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="72" t="s">
+      <c r="I20" s="115"/>
+      <c r="J20" s="137" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="112">
-        <v>41852</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>456</v>
-      </c>
-      <c r="C22" s="98">
-        <v>2</v>
-      </c>
-      <c r="D22" s="98">
-        <v>11</v>
-      </c>
-      <c r="E22" s="98" t="s">
+      <c r="K20" s="144"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="101"/>
+      <c r="B21" s="91" t="s">
+        <v>451</v>
+      </c>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97" t="s">
         <v>430</v>
       </c>
-      <c r="F22" s="40" t="s">
-        <v>457</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="H22" s="40" t="s">
+      <c r="F21" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="I22" s="118"/>
-      <c r="J22" s="113" t="s">
+      <c r="H21" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="I21" s="115">
+        <v>41877</v>
+      </c>
+      <c r="J21" s="138" t="s">
         <v>468</v>
       </c>
-      <c r="K22" s="141" t="s">
-        <v>473</v>
-      </c>
+      <c r="K21" s="144"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="101"/>
+      <c r="B22" s="91" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="I22" s="115">
+        <v>41877</v>
+      </c>
+      <c r="J22" s="138" t="s">
+        <v>468</v>
+      </c>
+      <c r="K22" s="144"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="112">
-        <v>41852</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>458</v>
-      </c>
-      <c r="C23" s="98">
-        <v>3</v>
-      </c>
-      <c r="D23" s="98">
-        <v>3</v>
-      </c>
-      <c r="E23" s="98" t="s">
-        <v>426</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="113" t="s">
-        <v>468</v>
-      </c>
+      <c r="A23" s="102"/>
+      <c r="K23"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="112">
         <v>41852</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C24" s="98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="98">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>416</v>
@@ -3232,11 +3252,14 @@
       <c r="H24" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="I24" s="118">
-        <v>41866</v>
-      </c>
-      <c r="J24" s="113" t="s">
+      <c r="I24" s="117">
+        <v>41877</v>
+      </c>
+      <c r="J24" s="138" t="s">
         <v>468</v>
+      </c>
+      <c r="K24" s="144" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3244,47 +3267,52 @@
         <v>41852</v>
       </c>
       <c r="B25" s="92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C25" s="98">
         <v>3</v>
       </c>
       <c r="D25" s="98">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E25" s="98" t="s">
         <v>426</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>416</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="79" t="s">
-        <v>338</v>
-      </c>
+      <c r="H25" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="I25" s="117">
+        <v>41877</v>
+      </c>
+      <c r="J25" s="138" t="s">
+        <v>468</v>
+      </c>
+      <c r="K25" s="144"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="112">
         <v>41852</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C26" s="98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="98" t="s">
         <v>426</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G26" s="40" t="s">
         <v>416</v>
@@ -3292,64 +3320,104 @@
       <c r="H26" s="40" t="s">
         <v>415</v>
       </c>
-      <c r="I26" s="118">
+      <c r="I26" s="117">
         <v>41866</v>
       </c>
-      <c r="J26" s="113" t="s">
+      <c r="J26" s="138" t="s">
         <v>468</v>
       </c>
+      <c r="K26" s="144"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="112">
         <v>41852</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C27" s="98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E27" s="98" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>416</v>
       </c>
       <c r="H27" s="40"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="79" t="s">
+      <c r="I27" s="117"/>
+      <c r="J27" s="140" t="s">
         <v>338</v>
       </c>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="112"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="79"/>
+      <c r="A28" s="112">
+        <v>41852</v>
+      </c>
+      <c r="B28" s="92" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="98">
+        <v>4</v>
+      </c>
+      <c r="D28" s="98">
+        <v>4</v>
+      </c>
+      <c r="E28" s="98" t="s">
+        <v>426</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="I28" s="117">
+        <v>41866</v>
+      </c>
+      <c r="J28" s="138" t="s">
+        <v>468</v>
+      </c>
+      <c r="K28" s="144"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="112"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="A29" s="112">
+        <v>41852</v>
+      </c>
+      <c r="B29" s="92" t="s">
+        <v>462</v>
+      </c>
+      <c r="C29" s="98">
+        <v>1</v>
+      </c>
+      <c r="D29" s="98">
+        <v>7</v>
+      </c>
+      <c r="E29" s="98" t="s">
+        <v>430</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="G29" s="40" t="s">
+        <v>416</v>
+      </c>
       <c r="H29" s="40"/>
-      <c r="I29" s="118"/>
-      <c r="J29" s="79"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="140" t="s">
+        <v>338</v>
+      </c>
+      <c r="K29" s="144"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="112"/>
@@ -3360,224 +3428,232 @@
       <c r="F30" s="40"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
-      <c r="I30" s="118"/>
-      <c r="J30" s="79"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="144"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="112"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="144"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="110">
-        <v>41852</v>
-      </c>
-      <c r="B32" s="111" t="s">
-        <v>444</v>
-      </c>
-      <c r="C32" s="99">
-        <v>1</v>
-      </c>
-      <c r="D32" s="99">
-        <v>1</v>
-      </c>
-      <c r="E32" s="99" t="s">
-        <v>430</v>
-      </c>
-      <c r="F32" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="G32" s="81" t="s">
-        <v>418</v>
-      </c>
-      <c r="H32" s="81"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="82" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="110">
-        <v>41852</v>
-      </c>
-      <c r="B33" s="111" t="s">
-        <v>444</v>
-      </c>
-      <c r="C33" s="99">
-        <v>2</v>
-      </c>
-      <c r="D33" s="99">
-        <v>4</v>
-      </c>
-      <c r="E33" s="99" t="s">
-        <v>430</v>
-      </c>
-      <c r="F33" s="81" t="s">
-        <v>446</v>
-      </c>
-      <c r="G33" s="81" t="s">
-        <v>418</v>
-      </c>
-      <c r="H33" s="81"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="82" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="112"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="144"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="102"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="110">
         <v>41852</v>
       </c>
       <c r="B34" s="111" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C34" s="99">
         <v>1</v>
       </c>
       <c r="D34" s="99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" s="99" t="s">
         <v>430</v>
       </c>
       <c r="F34" s="81" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G34" s="81" t="s">
         <v>418</v>
       </c>
       <c r="H34" s="81"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="82" t="s">
+      <c r="I34" s="118"/>
+      <c r="J34" s="141" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="144"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="110">
         <v>41852</v>
       </c>
       <c r="B35" s="111" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C35" s="99">
         <v>2</v>
       </c>
       <c r="D35" s="99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="99" t="s">
         <v>430</v>
       </c>
       <c r="F35" s="81" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G35" s="81" t="s">
         <v>418</v>
       </c>
       <c r="H35" s="81"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="82" t="s">
+      <c r="I35" s="118"/>
+      <c r="J35" s="141" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="144"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="110">
         <v>41852</v>
       </c>
       <c r="B36" s="111" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C36" s="99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="99">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="99" t="s">
         <v>430</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G36" s="81" t="s">
         <v>418</v>
       </c>
-      <c r="H36" s="81" t="s">
+      <c r="H36" s="81"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="141" t="s">
+        <v>338</v>
+      </c>
+      <c r="K36" s="144"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="110">
+        <v>41852</v>
+      </c>
+      <c r="B37" s="111" t="s">
+        <v>447</v>
+      </c>
+      <c r="C37" s="99">
+        <v>2</v>
+      </c>
+      <c r="D37" s="99">
+        <v>1</v>
+      </c>
+      <c r="E37" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>449</v>
+      </c>
+      <c r="G37" s="81" t="s">
+        <v>418</v>
+      </c>
+      <c r="H37" s="81"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="141" t="s">
+        <v>338</v>
+      </c>
+      <c r="K37" s="144"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="110">
+        <v>41852</v>
+      </c>
+      <c r="B38" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="C38" s="99">
+        <v>2</v>
+      </c>
+      <c r="D38" s="99">
+        <v>3</v>
+      </c>
+      <c r="E38" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="F38" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="G38" s="81" t="s">
+        <v>418</v>
+      </c>
+      <c r="H38" s="81" t="s">
         <v>415</v>
       </c>
-      <c r="I36" s="119">
+      <c r="I38" s="118">
         <v>41876</v>
       </c>
-      <c r="J36" s="113" t="s">
+      <c r="J38" s="138" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="103"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="82"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="102"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="105">
+      <c r="K38" s="144"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="103"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="144"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="102"/>
+      <c r="K40" s="144"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="105">
         <v>41852</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B41" s="94" t="s">
         <v>467</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100" t="s">
-        <v>430</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="H39" s="26"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="83" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="105"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="H40" s="26"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="83"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="105"/>
-      <c r="B41" s="94"/>
       <c r="C41" s="100"/>
       <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="26"/>
+      <c r="E41" s="100" t="s">
+        <v>430</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>466</v>
+      </c>
       <c r="G41" s="26" t="s">
         <v>417</v>
       </c>
       <c r="H41" s="26"/>
-      <c r="I41" s="120"/>
-      <c r="J41" s="83"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I41" s="119"/>
+      <c r="J41" s="142" t="s">
+        <v>338</v>
+      </c>
+      <c r="K41" s="144"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="105"/>
       <c r="B42" s="94"/>
       <c r="C42" s="100"/>
@@ -3588,46 +3664,280 @@
         <v>417</v>
       </c>
       <c r="H42" s="26"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="83"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="104"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="19"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="144"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="105"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="H43" s="26"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="144"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="105"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="H44" s="26"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="144"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="104"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="144"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="121"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="121"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="121"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="121"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="121"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="121"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="121"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="121"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="121"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="121"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K56" s="121"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="121"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="121"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K59" s="121"/>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K60" s="121"/>
+    </row>
+    <row r="61" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="121"/>
+    </row>
+    <row r="62" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="121"/>
+    </row>
+    <row r="63" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="121"/>
+    </row>
+    <row r="64" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="121"/>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="121"/>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" s="121"/>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" s="121"/>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" s="121"/>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="121"/>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="121"/>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="121"/>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="121"/>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="121"/>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="121"/>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K75" s="121"/>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K76" s="121"/>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K77" s="121"/>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" s="121"/>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" s="121"/>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" s="121"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" s="121"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" s="121"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="121"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="121"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" s="121"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" s="121"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="121"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="121"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K89" s="121"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K90" s="121"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K91" s="121"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K92" s="121"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K93" s="121"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="121"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="121"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="121"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" s="121"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98" s="121"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99" s="121"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="121"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="121"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102" s="121"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K103" s="121"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="121"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="121"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K106" s="121"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K107" s="121"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K108" s="121"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K109" s="121"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K110" s="121"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="121"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="121"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="121"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="121"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="121"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="121"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="121"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="121"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="121"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="95"/>
-      <c r="B120" s="95"/>
-      <c r="C120" s="95"/>
-      <c r="D120" s="95"/>
-      <c r="E120" s="95"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="121"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
+      <c r="K120" s="121"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="95"/>
-      <c r="B121" s="95"/>
-      <c r="C121" s="95"/>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="121"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
+      <c r="K121" s="121"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="95"/>
@@ -3638,9 +3948,9 @@
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
-      <c r="I122" s="121"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
+      <c r="I122" s="120"/>
+      <c r="J122" s="143"/>
+      <c r="K122" s="58"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="95"/>
@@ -3651,8 +3961,8 @@
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="121"/>
-      <c r="J123" s="19"/>
+      <c r="I123" s="120"/>
+      <c r="J123" s="143"/>
       <c r="K123" s="19"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -3664,8 +3974,8 @@
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="121"/>
-      <c r="J124" s="19"/>
+      <c r="I124" s="120"/>
+      <c r="J124" s="143"/>
       <c r="K124" s="19"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -3677,8 +3987,8 @@
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="121"/>
-      <c r="J125" s="19"/>
+      <c r="I125" s="120"/>
+      <c r="J125" s="143"/>
       <c r="K125" s="19"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -3690,8 +4000,8 @@
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
-      <c r="I126" s="121"/>
-      <c r="J126" s="19"/>
+      <c r="I126" s="120"/>
+      <c r="J126" s="143"/>
       <c r="K126" s="19"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -3703,8 +4013,8 @@
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
-      <c r="I127" s="121"/>
-      <c r="J127" s="19"/>
+      <c r="I127" s="120"/>
+      <c r="J127" s="143"/>
       <c r="K127" s="19"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -3716,8 +4026,8 @@
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
-      <c r="I128" s="121"/>
-      <c r="J128" s="19"/>
+      <c r="I128" s="120"/>
+      <c r="J128" s="143"/>
       <c r="K128" s="19"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -3729,8 +4039,8 @@
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
       <c r="H129" s="19"/>
-      <c r="I129" s="121"/>
-      <c r="J129" s="19"/>
+      <c r="I129" s="120"/>
+      <c r="J129" s="143"/>
       <c r="K129" s="19"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -3742,8 +4052,8 @@
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
       <c r="H130" s="19"/>
-      <c r="I130" s="121"/>
-      <c r="J130" s="19"/>
+      <c r="I130" s="120"/>
+      <c r="J130" s="143"/>
       <c r="K130" s="19"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -3755,8 +4065,8 @@
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
       <c r="H131" s="19"/>
-      <c r="I131" s="121"/>
-      <c r="J131" s="19"/>
+      <c r="I131" s="120"/>
+      <c r="J131" s="143"/>
       <c r="K131" s="19"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -3768,8 +4078,8 @@
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
       <c r="H132" s="19"/>
-      <c r="I132" s="121"/>
-      <c r="J132" s="19"/>
+      <c r="I132" s="120"/>
+      <c r="J132" s="143"/>
       <c r="K132" s="19"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -3781,8 +4091,8 @@
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
-      <c r="I133" s="121"/>
-      <c r="J133" s="19"/>
+      <c r="I133" s="120"/>
+      <c r="J133" s="143"/>
       <c r="K133" s="19"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -3794,8 +4104,8 @@
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
-      <c r="I134" s="121"/>
-      <c r="J134" s="19"/>
+      <c r="I134" s="120"/>
+      <c r="J134" s="143"/>
       <c r="K134" s="19"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -3807,8 +4117,8 @@
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
-      <c r="I135" s="121"/>
-      <c r="J135" s="19"/>
+      <c r="I135" s="120"/>
+      <c r="J135" s="143"/>
       <c r="K135" s="19"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -3820,8 +4130,8 @@
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
-      <c r="I136" s="121"/>
-      <c r="J136" s="19"/>
+      <c r="I136" s="120"/>
+      <c r="J136" s="143"/>
       <c r="K136" s="19"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -3833,8 +4143,8 @@
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
       <c r="H137" s="19"/>
-      <c r="I137" s="121"/>
-      <c r="J137" s="19"/>
+      <c r="I137" s="120"/>
+      <c r="J137" s="143"/>
       <c r="K137" s="19"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -3846,8 +4156,8 @@
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
-      <c r="I138" s="121"/>
-      <c r="J138" s="19"/>
+      <c r="I138" s="120"/>
+      <c r="J138" s="143"/>
       <c r="K138" s="19"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -3859,8 +4169,8 @@
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
-      <c r="I139" s="121"/>
-      <c r="J139" s="19"/>
+      <c r="I139" s="120"/>
+      <c r="J139" s="143"/>
       <c r="K139" s="19"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -3872,8 +4182,8 @@
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
       <c r="H140" s="19"/>
-      <c r="I140" s="121"/>
-      <c r="J140" s="19"/>
+      <c r="I140" s="120"/>
+      <c r="J140" s="143"/>
       <c r="K140" s="19"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -3885,8 +4195,8 @@
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
       <c r="H141" s="19"/>
-      <c r="I141" s="121"/>
-      <c r="J141" s="19"/>
+      <c r="I141" s="120"/>
+      <c r="J141" s="143"/>
       <c r="K141" s="19"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -3898,8 +4208,8 @@
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
-      <c r="I142" s="121"/>
-      <c r="J142" s="19"/>
+      <c r="I142" s="120"/>
+      <c r="J142" s="143"/>
       <c r="K142" s="19"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -3911,8 +4221,8 @@
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
-      <c r="I143" s="121"/>
-      <c r="J143" s="19"/>
+      <c r="I143" s="120"/>
+      <c r="J143" s="143"/>
       <c r="K143" s="19"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -3924,8 +4234,8 @@
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
       <c r="H144" s="19"/>
-      <c r="I144" s="121"/>
-      <c r="J144" s="19"/>
+      <c r="I144" s="120"/>
+      <c r="J144" s="143"/>
       <c r="K144" s="19"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -3937,8 +4247,8 @@
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
-      <c r="I145" s="121"/>
-      <c r="J145" s="19"/>
+      <c r="I145" s="120"/>
+      <c r="J145" s="143"/>
       <c r="K145" s="19"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -3950,8 +4260,8 @@
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
-      <c r="I146" s="121"/>
-      <c r="J146" s="19"/>
+      <c r="I146" s="120"/>
+      <c r="J146" s="143"/>
       <c r="K146" s="19"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -3963,8 +4273,8 @@
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
-      <c r="I147" s="121"/>
-      <c r="J147" s="19"/>
+      <c r="I147" s="120"/>
+      <c r="J147" s="143"/>
       <c r="K147" s="19"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -3976,8 +4286,8 @@
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
       <c r="H148" s="19"/>
-      <c r="I148" s="121"/>
-      <c r="J148" s="19"/>
+      <c r="I148" s="120"/>
+      <c r="J148" s="143"/>
       <c r="K148" s="19"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -3989,8 +4299,8 @@
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="121"/>
-      <c r="J149" s="19"/>
+      <c r="I149" s="120"/>
+      <c r="J149" s="143"/>
       <c r="K149" s="19"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -4002,8 +4312,8 @@
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
       <c r="H150" s="19"/>
-      <c r="I150" s="121"/>
-      <c r="J150" s="19"/>
+      <c r="I150" s="120"/>
+      <c r="J150" s="143"/>
       <c r="K150" s="19"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -4015,8 +4325,8 @@
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="121"/>
-      <c r="J151" s="19"/>
+      <c r="I151" s="120"/>
+      <c r="J151" s="143"/>
       <c r="K151" s="19"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -4028,8 +4338,8 @@
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="121"/>
-      <c r="J152" s="19"/>
+      <c r="I152" s="120"/>
+      <c r="J152" s="143"/>
       <c r="K152" s="19"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -4041,8 +4351,8 @@
       <c r="F153" s="19"/>
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
-      <c r="I153" s="121"/>
-      <c r="J153" s="19"/>
+      <c r="I153" s="120"/>
+      <c r="J153" s="143"/>
       <c r="K153" s="19"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -4054,8 +4364,8 @@
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
-      <c r="I154" s="121"/>
-      <c r="J154" s="19"/>
+      <c r="I154" s="120"/>
+      <c r="J154" s="143"/>
       <c r="K154" s="19"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -4067,8 +4377,8 @@
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
-      <c r="I155" s="121"/>
-      <c r="J155" s="19"/>
+      <c r="I155" s="120"/>
+      <c r="J155" s="143"/>
       <c r="K155" s="19"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -4080,8 +4390,8 @@
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
-      <c r="I156" s="121"/>
-      <c r="J156" s="19"/>
+      <c r="I156" s="120"/>
+      <c r="J156" s="143"/>
       <c r="K156" s="19"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -4093,8 +4403,8 @@
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
-      <c r="I157" s="121"/>
-      <c r="J157" s="19"/>
+      <c r="I157" s="120"/>
+      <c r="J157" s="143"/>
       <c r="K157" s="19"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -4106,8 +4416,8 @@
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
-      <c r="I158" s="121"/>
-      <c r="J158" s="19"/>
+      <c r="I158" s="120"/>
+      <c r="J158" s="143"/>
       <c r="K158" s="19"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -4119,8 +4429,8 @@
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
-      <c r="I159" s="121"/>
-      <c r="J159" s="19"/>
+      <c r="I159" s="120"/>
+      <c r="J159" s="143"/>
       <c r="K159" s="19"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -4132,8 +4442,8 @@
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
-      <c r="I160" s="121"/>
-      <c r="J160" s="19"/>
+      <c r="I160" s="120"/>
+      <c r="J160" s="143"/>
       <c r="K160" s="19"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -4145,8 +4455,8 @@
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
       <c r="H161" s="19"/>
-      <c r="I161" s="121"/>
-      <c r="J161" s="19"/>
+      <c r="I161" s="120"/>
+      <c r="J161" s="143"/>
       <c r="K161" s="19"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -4158,8 +4468,8 @@
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
-      <c r="I162" s="121"/>
-      <c r="J162" s="19"/>
+      <c r="I162" s="120"/>
+      <c r="J162" s="143"/>
       <c r="K162" s="19"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -4171,8 +4481,8 @@
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
-      <c r="I163" s="121"/>
-      <c r="J163" s="19"/>
+      <c r="I163" s="120"/>
+      <c r="J163" s="143"/>
       <c r="K163" s="19"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
@@ -4184,8 +4494,8 @@
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
-      <c r="I164" s="121"/>
-      <c r="J164" s="19"/>
+      <c r="I164" s="120"/>
+      <c r="J164" s="143"/>
       <c r="K164" s="19"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
@@ -4197,8 +4507,8 @@
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
-      <c r="I165" s="121"/>
-      <c r="J165" s="19"/>
+      <c r="I165" s="120"/>
+      <c r="J165" s="143"/>
       <c r="K165" s="19"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -4210,8 +4520,8 @@
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
-      <c r="I166" s="121"/>
-      <c r="J166" s="19"/>
+      <c r="I166" s="120"/>
+      <c r="J166" s="143"/>
       <c r="K166" s="19"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -4223,8 +4533,8 @@
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
-      <c r="I167" s="121"/>
-      <c r="J167" s="19"/>
+      <c r="I167" s="120"/>
+      <c r="J167" s="143"/>
       <c r="K167" s="19"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -4236,8 +4546,8 @@
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
-      <c r="I168" s="121"/>
-      <c r="J168" s="19"/>
+      <c r="I168" s="120"/>
+      <c r="J168" s="143"/>
       <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -4249,8 +4559,8 @@
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
-      <c r="I169" s="121"/>
-      <c r="J169" s="19"/>
+      <c r="I169" s="120"/>
+      <c r="J169" s="143"/>
       <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -4262,8 +4572,8 @@
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
       <c r="H170" s="19"/>
-      <c r="I170" s="121"/>
-      <c r="J170" s="19"/>
+      <c r="I170" s="120"/>
+      <c r="J170" s="143"/>
       <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -4275,8 +4585,8 @@
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
-      <c r="I171" s="121"/>
-      <c r="J171" s="19"/>
+      <c r="I171" s="120"/>
+      <c r="J171" s="143"/>
       <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -4288,8 +4598,8 @@
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
-      <c r="I172" s="121"/>
-      <c r="J172" s="19"/>
+      <c r="I172" s="120"/>
+      <c r="J172" s="143"/>
       <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -4301,8 +4611,8 @@
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
-      <c r="I173" s="121"/>
-      <c r="J173" s="19"/>
+      <c r="I173" s="120"/>
+      <c r="J173" s="143"/>
       <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -4314,8 +4624,8 @@
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
-      <c r="I174" s="121"/>
-      <c r="J174" s="19"/>
+      <c r="I174" s="120"/>
+      <c r="J174" s="143"/>
       <c r="K174" s="19"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -4327,8 +4637,8 @@
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
       <c r="H175" s="19"/>
-      <c r="I175" s="121"/>
-      <c r="J175" s="19"/>
+      <c r="I175" s="120"/>
+      <c r="J175" s="143"/>
       <c r="K175" s="19"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -4340,8 +4650,8 @@
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
       <c r="H176" s="19"/>
-      <c r="I176" s="121"/>
-      <c r="J176" s="19"/>
+      <c r="I176" s="120"/>
+      <c r="J176" s="143"/>
       <c r="K176" s="19"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -4353,8 +4663,8 @@
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
-      <c r="I177" s="121"/>
-      <c r="J177" s="19"/>
+      <c r="I177" s="120"/>
+      <c r="J177" s="143"/>
       <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -4366,8 +4676,8 @@
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
       <c r="H178" s="19"/>
-      <c r="I178" s="121"/>
-      <c r="J178" s="19"/>
+      <c r="I178" s="120"/>
+      <c r="J178" s="143"/>
       <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -4379,8 +4689,8 @@
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="H179" s="19"/>
-      <c r="I179" s="121"/>
-      <c r="J179" s="19"/>
+      <c r="I179" s="120"/>
+      <c r="J179" s="143"/>
       <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -4392,8 +4702,8 @@
       <c r="F180" s="19"/>
       <c r="G180" s="19"/>
       <c r="H180" s="19"/>
-      <c r="I180" s="121"/>
-      <c r="J180" s="19"/>
+      <c r="I180" s="120"/>
+      <c r="J180" s="143"/>
       <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -4405,8 +4715,8 @@
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
       <c r="H181" s="19"/>
-      <c r="I181" s="121"/>
-      <c r="J181" s="19"/>
+      <c r="I181" s="120"/>
+      <c r="J181" s="143"/>
       <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -4418,8 +4728,8 @@
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
       <c r="H182" s="19"/>
-      <c r="I182" s="121"/>
-      <c r="J182" s="19"/>
+      <c r="I182" s="120"/>
+      <c r="J182" s="143"/>
       <c r="K182" s="19"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -4431,8 +4741,8 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="19"/>
-      <c r="I183" s="121"/>
-      <c r="J183" s="19"/>
+      <c r="I183" s="120"/>
+      <c r="J183" s="143"/>
       <c r="K183" s="19"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -4444,8 +4754,8 @@
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
       <c r="H184" s="19"/>
-      <c r="I184" s="121"/>
-      <c r="J184" s="19"/>
+      <c r="I184" s="120"/>
+      <c r="J184" s="143"/>
       <c r="K184" s="19"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -4457,8 +4767,8 @@
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
       <c r="H185" s="19"/>
-      <c r="I185" s="121"/>
-      <c r="J185" s="19"/>
+      <c r="I185" s="120"/>
+      <c r="J185" s="143"/>
       <c r="K185" s="19"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -4470,8 +4780,8 @@
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
       <c r="H186" s="19"/>
-      <c r="I186" s="121"/>
-      <c r="J186" s="19"/>
+      <c r="I186" s="120"/>
+      <c r="J186" s="143"/>
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,8 +4793,8 @@
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
       <c r="H187" s="19"/>
-      <c r="I187" s="121"/>
-      <c r="J187" s="19"/>
+      <c r="I187" s="120"/>
+      <c r="J187" s="143"/>
       <c r="K187" s="19"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -4496,8 +4806,8 @@
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
       <c r="H188" s="19"/>
-      <c r="I188" s="121"/>
-      <c r="J188" s="19"/>
+      <c r="I188" s="120"/>
+      <c r="J188" s="143"/>
       <c r="K188" s="19"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -4509,8 +4819,8 @@
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
       <c r="H189" s="19"/>
-      <c r="I189" s="121"/>
-      <c r="J189" s="19"/>
+      <c r="I189" s="120"/>
+      <c r="J189" s="143"/>
       <c r="K189" s="19"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -4522,8 +4832,8 @@
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
       <c r="H190" s="19"/>
-      <c r="I190" s="121"/>
-      <c r="J190" s="19"/>
+      <c r="I190" s="120"/>
+      <c r="J190" s="143"/>
       <c r="K190" s="19"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -4535,8 +4845,8 @@
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
       <c r="H191" s="19"/>
-      <c r="I191" s="121"/>
-      <c r="J191" s="19"/>
+      <c r="I191" s="120"/>
+      <c r="J191" s="143"/>
       <c r="K191" s="19"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -4548,8 +4858,8 @@
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
       <c r="H192" s="19"/>
-      <c r="I192" s="121"/>
-      <c r="J192" s="19"/>
+      <c r="I192" s="120"/>
+      <c r="J192" s="143"/>
       <c r="K192" s="19"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -4561,8 +4871,8 @@
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
       <c r="H193" s="19"/>
-      <c r="I193" s="121"/>
-      <c r="J193" s="19"/>
+      <c r="I193" s="120"/>
+      <c r="J193" s="143"/>
       <c r="K193" s="19"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -4574,8 +4884,8 @@
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19"/>
-      <c r="I194" s="121"/>
-      <c r="J194" s="19"/>
+      <c r="I194" s="120"/>
+      <c r="J194" s="143"/>
       <c r="K194" s="19"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -4587,8 +4897,8 @@
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
       <c r="H195" s="19"/>
-      <c r="I195" s="121"/>
-      <c r="J195" s="19"/>
+      <c r="I195" s="120"/>
+      <c r="J195" s="143"/>
       <c r="K195" s="19"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -4600,8 +4910,8 @@
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
       <c r="H196" s="19"/>
-      <c r="I196" s="121"/>
-      <c r="J196" s="19"/>
+      <c r="I196" s="120"/>
+      <c r="J196" s="143"/>
       <c r="K196" s="19"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -4613,8 +4923,8 @@
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
       <c r="H197" s="19"/>
-      <c r="I197" s="121"/>
-      <c r="J197" s="19"/>
+      <c r="I197" s="120"/>
+      <c r="J197" s="143"/>
       <c r="K197" s="19"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -4626,8 +4936,8 @@
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
       <c r="H198" s="19"/>
-      <c r="I198" s="121"/>
-      <c r="J198" s="19"/>
+      <c r="I198" s="120"/>
+      <c r="J198" s="143"/>
       <c r="K198" s="19"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -4639,8 +4949,8 @@
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
       <c r="H199" s="19"/>
-      <c r="I199" s="121"/>
-      <c r="J199" s="19"/>
+      <c r="I199" s="120"/>
+      <c r="J199" s="143"/>
       <c r="K199" s="19"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -4652,8 +4962,8 @@
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
       <c r="H200" s="19"/>
-      <c r="I200" s="121"/>
-      <c r="J200" s="19"/>
+      <c r="I200" s="120"/>
+      <c r="J200" s="143"/>
       <c r="K200" s="19"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -4665,8 +4975,8 @@
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
       <c r="H201" s="19"/>
-      <c r="I201" s="121"/>
-      <c r="J201" s="19"/>
+      <c r="I201" s="120"/>
+      <c r="J201" s="143"/>
       <c r="K201" s="19"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -4678,8 +4988,8 @@
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="19"/>
-      <c r="I202" s="121"/>
-      <c r="J202" s="19"/>
+      <c r="I202" s="120"/>
+      <c r="J202" s="143"/>
       <c r="K202" s="19"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -4691,8 +5001,8 @@
       <c r="F203" s="19"/>
       <c r="G203" s="19"/>
       <c r="H203" s="19"/>
-      <c r="I203" s="121"/>
-      <c r="J203" s="19"/>
+      <c r="I203" s="120"/>
+      <c r="J203" s="143"/>
       <c r="K203" s="19"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -4704,8 +5014,8 @@
       <c r="F204" s="19"/>
       <c r="G204" s="19"/>
       <c r="H204" s="19"/>
-      <c r="I204" s="121"/>
-      <c r="J204" s="19"/>
+      <c r="I204" s="120"/>
+      <c r="J204" s="143"/>
       <c r="K204" s="19"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -4717,8 +5027,8 @@
       <c r="F205" s="19"/>
       <c r="G205" s="19"/>
       <c r="H205" s="19"/>
-      <c r="I205" s="121"/>
-      <c r="J205" s="19"/>
+      <c r="I205" s="120"/>
+      <c r="J205" s="143"/>
       <c r="K205" s="19"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -4730,8 +5040,8 @@
       <c r="F206" s="19"/>
       <c r="G206" s="19"/>
       <c r="H206" s="19"/>
-      <c r="I206" s="121"/>
-      <c r="J206" s="19"/>
+      <c r="I206" s="120"/>
+      <c r="J206" s="143"/>
       <c r="K206" s="19"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -4743,8 +5053,8 @@
       <c r="F207" s="19"/>
       <c r="G207" s="19"/>
       <c r="H207" s="19"/>
-      <c r="I207" s="121"/>
-      <c r="J207" s="19"/>
+      <c r="I207" s="120"/>
+      <c r="J207" s="143"/>
       <c r="K207" s="19"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -4756,8 +5066,8 @@
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="19"/>
-      <c r="I208" s="121"/>
-      <c r="J208" s="19"/>
+      <c r="I208" s="120"/>
+      <c r="J208" s="143"/>
       <c r="K208" s="19"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -4769,8 +5079,8 @@
       <c r="F209" s="19"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19"/>
-      <c r="I209" s="121"/>
-      <c r="J209" s="19"/>
+      <c r="I209" s="120"/>
+      <c r="J209" s="143"/>
       <c r="K209" s="19"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -4782,8 +5092,8 @@
       <c r="F210" s="19"/>
       <c r="G210" s="19"/>
       <c r="H210" s="19"/>
-      <c r="I210" s="121"/>
-      <c r="J210" s="19"/>
+      <c r="I210" s="120"/>
+      <c r="J210" s="143"/>
       <c r="K210" s="19"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -4795,8 +5105,8 @@
       <c r="F211" s="19"/>
       <c r="G211" s="19"/>
       <c r="H211" s="19"/>
-      <c r="I211" s="121"/>
-      <c r="J211" s="19"/>
+      <c r="I211" s="120"/>
+      <c r="J211" s="143"/>
       <c r="K211" s="19"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -4808,8 +5118,8 @@
       <c r="F212" s="19"/>
       <c r="G212" s="19"/>
       <c r="H212" s="19"/>
-      <c r="I212" s="121"/>
-      <c r="J212" s="19"/>
+      <c r="I212" s="120"/>
+      <c r="J212" s="143"/>
       <c r="K212" s="19"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -4821,8 +5131,8 @@
       <c r="F213" s="19"/>
       <c r="G213" s="19"/>
       <c r="H213" s="19"/>
-      <c r="I213" s="121"/>
-      <c r="J213" s="19"/>
+      <c r="I213" s="120"/>
+      <c r="J213" s="143"/>
       <c r="K213" s="19"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -4834,8 +5144,8 @@
       <c r="F214" s="19"/>
       <c r="G214" s="19"/>
       <c r="H214" s="19"/>
-      <c r="I214" s="121"/>
-      <c r="J214" s="19"/>
+      <c r="I214" s="120"/>
+      <c r="J214" s="143"/>
       <c r="K214" s="19"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -4847,8 +5157,8 @@
       <c r="F215" s="19"/>
       <c r="G215" s="19"/>
       <c r="H215" s="19"/>
-      <c r="I215" s="121"/>
-      <c r="J215" s="19"/>
+      <c r="I215" s="120"/>
+      <c r="J215" s="143"/>
       <c r="K215" s="19"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -4860,8 +5170,8 @@
       <c r="F216" s="19"/>
       <c r="G216" s="19"/>
       <c r="H216" s="19"/>
-      <c r="I216" s="121"/>
-      <c r="J216" s="19"/>
+      <c r="I216" s="120"/>
+      <c r="J216" s="143"/>
       <c r="K216" s="19"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -4873,8 +5183,8 @@
       <c r="F217" s="19"/>
       <c r="G217" s="19"/>
       <c r="H217" s="19"/>
-      <c r="I217" s="121"/>
-      <c r="J217" s="19"/>
+      <c r="I217" s="120"/>
+      <c r="J217" s="143"/>
       <c r="K217" s="19"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -4886,8 +5196,8 @@
       <c r="F218" s="19"/>
       <c r="G218" s="19"/>
       <c r="H218" s="19"/>
-      <c r="I218" s="121"/>
-      <c r="J218" s="19"/>
+      <c r="I218" s="120"/>
+      <c r="J218" s="143"/>
       <c r="K218" s="19"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -4899,8 +5209,8 @@
       <c r="F219" s="19"/>
       <c r="G219" s="19"/>
       <c r="H219" s="19"/>
-      <c r="I219" s="121"/>
-      <c r="J219" s="19"/>
+      <c r="I219" s="120"/>
+      <c r="J219" s="143"/>
       <c r="K219" s="19"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -4912,8 +5222,8 @@
       <c r="F220" s="19"/>
       <c r="G220" s="19"/>
       <c r="H220" s="19"/>
-      <c r="I220" s="121"/>
-      <c r="J220" s="19"/>
+      <c r="I220" s="120"/>
+      <c r="J220" s="143"/>
       <c r="K220" s="19"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -4925,8 +5235,8 @@
       <c r="F221" s="19"/>
       <c r="G221" s="19"/>
       <c r="H221" s="19"/>
-      <c r="I221" s="121"/>
-      <c r="J221" s="19"/>
+      <c r="I221" s="120"/>
+      <c r="J221" s="143"/>
       <c r="K221" s="19"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -4938,8 +5248,8 @@
       <c r="F222" s="19"/>
       <c r="G222" s="19"/>
       <c r="H222" s="19"/>
-      <c r="I222" s="121"/>
-      <c r="J222" s="19"/>
+      <c r="I222" s="120"/>
+      <c r="J222" s="143"/>
       <c r="K222" s="19"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -4951,8 +5261,8 @@
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
       <c r="H223" s="19"/>
-      <c r="I223" s="121"/>
-      <c r="J223" s="19"/>
+      <c r="I223" s="120"/>
+      <c r="J223" s="143"/>
       <c r="K223" s="19"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -4964,8 +5274,8 @@
       <c r="F224" s="19"/>
       <c r="G224" s="19"/>
       <c r="H224" s="19"/>
-      <c r="I224" s="121"/>
-      <c r="J224" s="19"/>
+      <c r="I224" s="120"/>
+      <c r="J224" s="143"/>
       <c r="K224" s="19"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -4977,8 +5287,8 @@
       <c r="F225" s="19"/>
       <c r="G225" s="19"/>
       <c r="H225" s="19"/>
-      <c r="I225" s="121"/>
-      <c r="J225" s="19"/>
+      <c r="I225" s="120"/>
+      <c r="J225" s="143"/>
       <c r="K225" s="19"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -4990,8 +5300,8 @@
       <c r="F226" s="19"/>
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
-      <c r="I226" s="121"/>
-      <c r="J226" s="19"/>
+      <c r="I226" s="120"/>
+      <c r="J226" s="143"/>
       <c r="K226" s="19"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -5003,8 +5313,8 @@
       <c r="F227" s="19"/>
       <c r="G227" s="19"/>
       <c r="H227" s="19"/>
-      <c r="I227" s="121"/>
-      <c r="J227" s="19"/>
+      <c r="I227" s="120"/>
+      <c r="J227" s="143"/>
       <c r="K227" s="19"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -5016,8 +5326,8 @@
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
       <c r="H228" s="19"/>
-      <c r="I228" s="121"/>
-      <c r="J228" s="19"/>
+      <c r="I228" s="120"/>
+      <c r="J228" s="143"/>
       <c r="K228" s="19"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -5029,8 +5339,8 @@
       <c r="F229" s="19"/>
       <c r="G229" s="19"/>
       <c r="H229" s="19"/>
-      <c r="I229" s="121"/>
-      <c r="J229" s="19"/>
+      <c r="I229" s="120"/>
+      <c r="J229" s="143"/>
       <c r="K229" s="19"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -5042,8 +5352,8 @@
       <c r="F230" s="19"/>
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
-      <c r="I230" s="121"/>
-      <c r="J230" s="19"/>
+      <c r="I230" s="120"/>
+      <c r="J230" s="143"/>
       <c r="K230" s="19"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -5055,8 +5365,8 @@
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
       <c r="H231" s="19"/>
-      <c r="I231" s="121"/>
-      <c r="J231" s="19"/>
+      <c r="I231" s="120"/>
+      <c r="J231" s="143"/>
       <c r="K231" s="19"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -5068,8 +5378,8 @@
       <c r="F232" s="19"/>
       <c r="G232" s="19"/>
       <c r="H232" s="19"/>
-      <c r="I232" s="121"/>
-      <c r="J232" s="19"/>
+      <c r="I232" s="120"/>
+      <c r="J232" s="143"/>
       <c r="K232" s="19"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -5081,8 +5391,8 @@
       <c r="F233" s="19"/>
       <c r="G233" s="19"/>
       <c r="H233" s="19"/>
-      <c r="I233" s="121"/>
-      <c r="J233" s="19"/>
+      <c r="I233" s="120"/>
+      <c r="J233" s="143"/>
       <c r="K233" s="19"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -5094,8 +5404,8 @@
       <c r="F234" s="19"/>
       <c r="G234" s="19"/>
       <c r="H234" s="19"/>
-      <c r="I234" s="121"/>
-      <c r="J234" s="19"/>
+      <c r="I234" s="120"/>
+      <c r="J234" s="143"/>
       <c r="K234" s="19"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -5107,8 +5417,8 @@
       <c r="F235" s="19"/>
       <c r="G235" s="19"/>
       <c r="H235" s="19"/>
-      <c r="I235" s="121"/>
-      <c r="J235" s="19"/>
+      <c r="I235" s="120"/>
+      <c r="J235" s="143"/>
       <c r="K235" s="19"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -5120,8 +5430,8 @@
       <c r="F236" s="19"/>
       <c r="G236" s="19"/>
       <c r="H236" s="19"/>
-      <c r="I236" s="121"/>
-      <c r="J236" s="19"/>
+      <c r="I236" s="120"/>
+      <c r="J236" s="143"/>
       <c r="K236" s="19"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -5133,8 +5443,8 @@
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
       <c r="H237" s="19"/>
-      <c r="I237" s="121"/>
-      <c r="J237" s="19"/>
+      <c r="I237" s="120"/>
+      <c r="J237" s="143"/>
       <c r="K237" s="19"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -5146,8 +5456,8 @@
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="19"/>
-      <c r="I238" s="121"/>
-      <c r="J238" s="19"/>
+      <c r="I238" s="120"/>
+      <c r="J238" s="143"/>
       <c r="K238" s="19"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -5159,8 +5469,8 @@
       <c r="F239" s="19"/>
       <c r="G239" s="19"/>
       <c r="H239" s="19"/>
-      <c r="I239" s="121"/>
-      <c r="J239" s="19"/>
+      <c r="I239" s="120"/>
+      <c r="J239" s="143"/>
       <c r="K239" s="19"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -5172,8 +5482,8 @@
       <c r="F240" s="19"/>
       <c r="G240" s="19"/>
       <c r="H240" s="19"/>
-      <c r="I240" s="121"/>
-      <c r="J240" s="19"/>
+      <c r="I240" s="120"/>
+      <c r="J240" s="143"/>
       <c r="K240" s="19"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -5185,8 +5495,8 @@
       <c r="F241" s="19"/>
       <c r="G241" s="19"/>
       <c r="H241" s="19"/>
-      <c r="I241" s="121"/>
-      <c r="J241" s="19"/>
+      <c r="I241" s="120"/>
+      <c r="J241" s="143"/>
       <c r="K241" s="19"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -5198,8 +5508,8 @@
       <c r="F242" s="19"/>
       <c r="G242" s="19"/>
       <c r="H242" s="19"/>
-      <c r="I242" s="121"/>
-      <c r="J242" s="19"/>
+      <c r="I242" s="120"/>
+      <c r="J242" s="143"/>
       <c r="K242" s="19"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -5211,8 +5521,8 @@
       <c r="F243" s="19"/>
       <c r="G243" s="19"/>
       <c r="H243" s="19"/>
-      <c r="I243" s="121"/>
-      <c r="J243" s="19"/>
+      <c r="I243" s="120"/>
+      <c r="J243" s="143"/>
       <c r="K243" s="19"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -5224,8 +5534,8 @@
       <c r="F244" s="19"/>
       <c r="G244" s="19"/>
       <c r="H244" s="19"/>
-      <c r="I244" s="121"/>
-      <c r="J244" s="19"/>
+      <c r="I244" s="120"/>
+      <c r="J244" s="143"/>
       <c r="K244" s="19"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -5237,8 +5547,8 @@
       <c r="F245" s="19"/>
       <c r="G245" s="19"/>
       <c r="H245" s="19"/>
-      <c r="I245" s="121"/>
-      <c r="J245" s="19"/>
+      <c r="I245" s="120"/>
+      <c r="J245" s="143"/>
       <c r="K245" s="19"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -5250,8 +5560,8 @@
       <c r="F246" s="19"/>
       <c r="G246" s="19"/>
       <c r="H246" s="19"/>
-      <c r="I246" s="121"/>
-      <c r="J246" s="19"/>
+      <c r="I246" s="120"/>
+      <c r="J246" s="143"/>
       <c r="K246" s="19"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -5263,8 +5573,8 @@
       <c r="F247" s="19"/>
       <c r="G247" s="19"/>
       <c r="H247" s="19"/>
-      <c r="I247" s="121"/>
-      <c r="J247" s="19"/>
+      <c r="I247" s="120"/>
+      <c r="J247" s="143"/>
       <c r="K247" s="19"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -5276,8 +5586,8 @@
       <c r="F248" s="19"/>
       <c r="G248" s="19"/>
       <c r="H248" s="19"/>
-      <c r="I248" s="121"/>
-      <c r="J248" s="19"/>
+      <c r="I248" s="120"/>
+      <c r="J248" s="143"/>
       <c r="K248" s="19"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -5289,8 +5599,8 @@
       <c r="F249" s="19"/>
       <c r="G249" s="19"/>
       <c r="H249" s="19"/>
-      <c r="I249" s="121"/>
-      <c r="J249" s="19"/>
+      <c r="I249" s="120"/>
+      <c r="J249" s="143"/>
       <c r="K249" s="19"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -5302,8 +5612,8 @@
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
       <c r="H250" s="19"/>
-      <c r="I250" s="121"/>
-      <c r="J250" s="19"/>
+      <c r="I250" s="120"/>
+      <c r="J250" s="143"/>
       <c r="K250" s="19"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -5315,8 +5625,8 @@
       <c r="F251" s="19"/>
       <c r="G251" s="19"/>
       <c r="H251" s="19"/>
-      <c r="I251" s="121"/>
-      <c r="J251" s="19"/>
+      <c r="I251" s="120"/>
+      <c r="J251" s="143"/>
       <c r="K251" s="19"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -5328,8 +5638,8 @@
       <c r="F252" s="19"/>
       <c r="G252" s="19"/>
       <c r="H252" s="19"/>
-      <c r="I252" s="121"/>
-      <c r="J252" s="19"/>
+      <c r="I252" s="120"/>
+      <c r="J252" s="143"/>
       <c r="K252" s="19"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -5341,8 +5651,8 @@
       <c r="F253" s="19"/>
       <c r="G253" s="19"/>
       <c r="H253" s="19"/>
-      <c r="I253" s="121"/>
-      <c r="J253" s="19"/>
+      <c r="I253" s="120"/>
+      <c r="J253" s="143"/>
       <c r="K253" s="19"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -5354,8 +5664,8 @@
       <c r="F254" s="19"/>
       <c r="G254" s="19"/>
       <c r="H254" s="19"/>
-      <c r="I254" s="121"/>
-      <c r="J254" s="19"/>
+      <c r="I254" s="120"/>
+      <c r="J254" s="143"/>
       <c r="K254" s="19"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -5367,8 +5677,8 @@
       <c r="F255" s="19"/>
       <c r="G255" s="19"/>
       <c r="H255" s="19"/>
-      <c r="I255" s="121"/>
-      <c r="J255" s="19"/>
+      <c r="I255" s="120"/>
+      <c r="J255" s="143"/>
       <c r="K255" s="19"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -5380,8 +5690,8 @@
       <c r="F256" s="19"/>
       <c r="G256" s="19"/>
       <c r="H256" s="19"/>
-      <c r="I256" s="121"/>
-      <c r="J256" s="19"/>
+      <c r="I256" s="120"/>
+      <c r="J256" s="143"/>
       <c r="K256" s="19"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -5393,9 +5703,35 @@
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
       <c r="H257" s="19"/>
-      <c r="I257" s="121"/>
-      <c r="J257" s="19"/>
+      <c r="I257" s="120"/>
+      <c r="J257" s="143"/>
       <c r="K257" s="19"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="95"/>
+      <c r="B258" s="95"/>
+      <c r="C258" s="95"/>
+      <c r="D258" s="95"/>
+      <c r="E258" s="95"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="19"/>
+      <c r="H258" s="19"/>
+      <c r="I258" s="120"/>
+      <c r="J258" s="143"/>
+      <c r="K258" s="19"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="95"/>
+      <c r="B259" s="95"/>
+      <c r="C259" s="95"/>
+      <c r="D259" s="95"/>
+      <c r="E259" s="95"/>
+      <c r="F259" s="19"/>
+      <c r="G259" s="19"/>
+      <c r="H259" s="19"/>
+      <c r="I259" s="120"/>
+      <c r="J259" s="143"/>
+      <c r="K259" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5435,18 +5771,18 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
@@ -5590,18 +5926,18 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="132"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="133"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
@@ -5668,16 +6004,16 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="138"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="140"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="136"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -9780,42 +10116,42 @@
       <c r="F31" s="19"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="126"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="128"/>
+      <c r="A36" s="122"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="124"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="125" t="s">
         <v>407</v>
       </c>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="130"/>
-      <c r="J37" s="131"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="127"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="126"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="128"/>
+      <c r="A38" s="122"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="124"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="73">
@@ -11589,18 +11925,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -13139,42 +13475,42 @@
       <c r="J65" s="19"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="126"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="128"/>
+      <c r="A66" s="122"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
+      <c r="H66" s="123"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="124"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="129" t="s">
+      <c r="A67" s="125" t="s">
         <v>403</v>
       </c>
-      <c r="B67" s="130"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="131"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="127"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="126"/>
-      <c r="B68" s="127"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="127"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="127"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="128"/>
+      <c r="A68" s="122"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="123"/>
+      <c r="F68" s="123"/>
+      <c r="G68" s="123"/>
+      <c r="H68" s="123"/>
+      <c r="I68" s="123"/>
+      <c r="J68" s="124"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
@@ -16708,18 +17044,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -18046,18 +18382,18 @@
       <c r="J58" s="38"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="135" t="s">
+      <c r="A59" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="137"/>
+      <c r="B59" s="132"/>
+      <c r="C59" s="132"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="132"/>
+      <c r="F59" s="132"/>
+      <c r="G59" s="132"/>
+      <c r="H59" s="132"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="133"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
@@ -19975,18 +20311,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -23074,18 +23410,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="134"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -23258,16 +23594,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="140"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
@@ -23452,16 +23788,16 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="140"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="136"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
@@ -23562,16 +23898,16 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="138"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="140"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
@@ -23894,16 +24230,16 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="138"/>
-      <c r="B36" s="139"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="140"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="136"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
@@ -23962,16 +24298,16 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="138"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="140"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="136"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
@@ -24156,16 +24492,16 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="138"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="140"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="136"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
@@ -24280,16 +24616,16 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="138"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="140"/>
+      <c r="A52" s="134"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="135"/>
+      <c r="H52" s="135"/>
+      <c r="I52" s="135"/>
+      <c r="J52" s="136"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
@@ -25074,18 +25410,18 @@
       <c r="J90" s="38"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="135" t="s">
+      <c r="A91" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="B91" s="136"/>
-      <c r="C91" s="136"/>
-      <c r="D91" s="136"/>
-      <c r="E91" s="136"/>
-      <c r="F91" s="136"/>
-      <c r="G91" s="136"/>
-      <c r="H91" s="136"/>
-      <c r="I91" s="136"/>
-      <c r="J91" s="137"/>
+      <c r="B91" s="132"/>
+      <c r="C91" s="132"/>
+      <c r="D91" s="132"/>
+      <c r="E91" s="132"/>
+      <c r="F91" s="132"/>
+      <c r="G91" s="132"/>
+      <c r="H91" s="132"/>
+      <c r="I91" s="132"/>
+      <c r="J91" s="133"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="28" t="s">
